--- a/dados_dos_loops.xlsx
+++ b/dados_dos_loops.xlsx
@@ -5,20 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\tcc-loops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E659EC0-CDF8-4002-8FAF-7636E1E98A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEAE7F0-796C-478A-9F64-4489BE5C8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{03DE6EFA-ACBA-469F-8E6A-32C56FD255F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{03DE6EFA-ACBA-469F-8E6A-32C56FD255F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Memoria-Hash" sheetId="6" r:id="rId1"/>
     <sheet name="Memoria-Fila" sheetId="5" r:id="rId2"/>
     <sheet name="Memoria-Pilha" sheetId="4" r:id="rId3"/>
-    <sheet name="Tempo-Hash" sheetId="3" r:id="rId4"/>
-    <sheet name="Tempo-Fila" sheetId="2" r:id="rId5"/>
-    <sheet name="Tempo-Pilha" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -119,15 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,19 +716,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9614</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>16056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>19238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,6 +1414,820 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Memoria-Hash'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.69997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2959977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000032999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.524381999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.3370642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.161999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>129.02099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3640020000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.022399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.633304000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elixir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.946999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.542999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122.934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.606E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8157000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.132108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19570299999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25266300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.1283999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.078802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4627150000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6317529999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5375350000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Hash'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Hash'!$I$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-756D-4EE1-B79F-443D4E6D62E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1940973407"/>
+        <c:axId val="1940976735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1940973407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1940976735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1940976735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1940973407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Memoria-Fila'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1944,19 +2751,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>15879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,7 +3394,821 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Java</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13799040000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7465681999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.160988100000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.151025600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.2879988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.151999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2152319999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.448302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.774165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.523383000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elixir</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.388999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.233999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.0169999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44984099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4333929999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4328799999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7681269999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C#</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6687000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.297962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.348833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53446300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93798400000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Memoria-Fila'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1 Milhão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150 Milhões</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200 Milhões</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memoria-Fila'!$I$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-555B-4DC9-AB19-D21BC8D2317C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1845367615"/>
+        <c:axId val="1845369695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1845367615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845369695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1845369695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1845367615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -3165,19 +4786,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4262</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3808,1634 +5429,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Java</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.69997E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2959977</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.4000032999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.524381999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.3370642</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.161999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>77.097999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>129.02099999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Python</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.6000000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3640020000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.068</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.022399999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.633304000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elixir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.606E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.8157000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.132108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19570299999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25266300000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C#</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.1283999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.078802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4627150000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6317529999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5375350000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LISP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Hash'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Hash'!$B$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-010C-4CAF-9849-A01B9DD6B7E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1072840015"/>
-        <c:axId val="1072855407"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1072840015"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072855407"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1072855407"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072840015"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Java</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$2:$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.13799040000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.7465681999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.160988100000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.151025600000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.2879988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$3:$F$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.6790000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5440000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.151999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Python</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4.5002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2152319999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.448302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.774165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.523383000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Elixir</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$5:$F$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.0169999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44984099999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4333929999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.4328799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.7681269999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C#</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$7:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.6687000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.297962</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.348833</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53446300000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93798400000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LISP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tempo-Fila'!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1 Milhão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150 Milhões</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200 Milhões</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tempo-Fila'!$B$8:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4D7A-479B-AD57-B1B172755003}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1072858319"/>
-        <c:axId val="1072848335"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1072858319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072848335"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1072848335"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1072858319"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5491,7 +5484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$2</c:f>
+              <c:f>'Memoria-Pilha'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5514,7 +5507,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5537,7 +5530,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$2:$F$2</c:f>
+              <c:f>'Memoria-Pilha'!$I$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5562,7 +5555,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000000-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5571,7 +5564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$3</c:f>
+              <c:f>'Memoria-Pilha'!$H$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5594,7 +5587,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5617,7 +5610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$3:$F$3</c:f>
+              <c:f>'Memoria-Pilha'!$I$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5642,7 +5635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000001-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5651,7 +5644,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$4</c:f>
+              <c:f>'Memoria-Pilha'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5674,7 +5667,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5697,7 +5690,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$4:$F$4</c:f>
+              <c:f>'Memoria-Pilha'!$I$4:$M$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5722,7 +5715,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000002-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5731,7 +5724,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$5</c:f>
+              <c:f>'Memoria-Pilha'!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5754,7 +5747,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5777,24 +5770,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$5:$F$5</c:f>
+              <c:f>'Memoria-Pilha'!$I$5:$M$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5.8999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>5.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.1809999999999992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>10.686999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5802,7 +5795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000003-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5811,7 +5804,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$6</c:f>
+              <c:f>'Memoria-Pilha'!$H$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5834,7 +5827,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5857,7 +5850,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$6:$F$6</c:f>
+              <c:f>'Memoria-Pilha'!$I$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5882,7 +5875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000004-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5891,7 +5884,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$7</c:f>
+              <c:f>'Memoria-Pilha'!$H$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5914,7 +5907,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5937,7 +5930,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$7:$F$7</c:f>
+              <c:f>'Memoria-Pilha'!$I$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5962,7 +5955,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000005-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5971,7 +5964,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$A$8</c:f>
+              <c:f>'Memoria-Pilha'!$H$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5996,7 +5989,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Tempo-Pilha'!$B$1:$F$1</c:f>
+              <c:f>'Memoria-Pilha'!$I$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -6019,7 +6012,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tempo-Pilha'!$B$8:$F$8</c:f>
+              <c:f>'Memoria-Pilha'!$I$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6044,7 +6037,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2B7C-49ED-A046-C8B6FD71D9D6}"/>
+              <c16:uniqueId val="{00000006-EA49-46D1-BA44-664F00656911}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6057,11 +6050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1072864143"/>
-        <c:axId val="1072857903"/>
+        <c:axId val="1942677039"/>
+        <c:axId val="1942673711"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1072864143"/>
+        <c:axId val="1942677039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6104,7 +6097,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072857903"/>
+        <c:crossAx val="1942673711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6112,7 +6105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1072857903"/>
+        <c:axId val="1942673711"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6156,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072864143"/>
+        <c:crossAx val="1942677039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9624,6 +9617,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FED523C-F0D2-8A2B-AE9F-5A6E03CE7885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9660,6 +9689,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3CCC8C-AD9C-0663-A367-C3D2EC750B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9706,30 +9771,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F3F0C1-0EBF-A069-B55F-F8C5BA292783}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB0CF2F-73E1-3588-FF84-2C50AD52686E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9741,89 +9801,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1009649</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0D9FBA-9F1F-4874-FC02-6D713F5D6A64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4200E4-F291-8CDB-8D6A-36884D749235}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10129,19 +10107,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F3C2CA-80F9-46A3-BA9E-998898FFC01A}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="6" width="19" customWidth="1"/>
+    <col min="8" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -10158,8 +10137,24 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10178,8 +10173,26 @@
       <c r="F2" s="1">
         <v>12213</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.69997E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.2959977</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.4000032999999998</v>
+      </c>
+      <c r="L2" s="1">
+        <v>11.524381999999999</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15.3370642</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10198,8 +10211,26 @@
       <c r="F3" s="1">
         <v>8201</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.251</v>
+      </c>
+      <c r="J3" s="1">
+        <v>13.24</v>
+      </c>
+      <c r="K3" s="1">
+        <v>37.161999999999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>77.097999999999999</v>
+      </c>
+      <c r="M3" s="1">
+        <v>129.02099999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10218,28 +10249,64 @@
       <c r="F4" s="1">
         <v>12207</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.3640020000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10.068</v>
+      </c>
+      <c r="L4" s="1">
+        <v>14.022399999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>37.633304000000003</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>5377</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>9614</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>16056</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>19238</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10.946999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>20.542999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>74.728999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>122.934</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10258,8 +10325,26 @@
       <c r="F6" s="1">
         <v>762</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.606E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.8157000000000004E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.132108</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.19570299999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.25266300000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -10278,8 +10363,26 @@
       <c r="F7" s="1">
         <v>4965</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6.1283999999999998E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.078802</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.4627150000000002</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.6317529999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6.5375350000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -10298,9 +10401,24 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -10311,19 +10429,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF087F96-26F8-4A1C-834A-6EC2DC8FFD89}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="6" width="19" customWidth="1"/>
+    <col min="8" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -10340,8 +10459,24 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10360,8 +10495,26 @@
       <c r="F2" s="1">
         <v>9666</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.13799040000000001</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6.7465681999999996</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13.160988100000001</v>
+      </c>
+      <c r="L2" s="1">
+        <v>22.151025600000001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>30.2879988</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10380,8 +10533,26 @@
       <c r="F3" s="1">
         <v>6611</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>5.6790000000000003</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.5440000000000005</v>
+      </c>
+      <c r="M3" s="1">
+        <v>12.151999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10400,28 +10571,64 @@
       <c r="F4" s="1">
         <v>1574</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.5002E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.2152319999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.448302</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6.774165</v>
+      </c>
+      <c r="M4" s="1">
+        <v>10.523383000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>4012</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>9956</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>11151</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>15879</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>15.388999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>38.323999999999998</v>
+      </c>
+      <c r="M5" s="1">
+        <v>69.233999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10440,8 +10647,26 @@
       <c r="F6" s="1">
         <v>3051</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.0169999999999998E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.44984099999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.4333929999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.4328799999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>6.7681269999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -10460,8 +10685,26 @@
       <c r="F7" s="1">
         <v>1536</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.6687000000000001E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.297962</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.348833</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.53446300000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.93798400000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -10478,6 +10721,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -10490,19 +10751,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2E218C-691F-4F48-9BCA-F15997F22C15}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="6" width="19" customWidth="1"/>
+    <col min="8" max="13" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -10519,8 +10781,24 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10539,8 +10817,26 @@
       <c r="F2" s="1">
         <v>6857</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0999200000000001E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.0229992000000001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.8376459999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2.7472713</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3.1420770999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10559,8 +10855,26 @@
       <c r="F3" s="1">
         <v>839</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.018</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="L3" s="1">
+        <v>7.343</v>
+      </c>
+      <c r="M3" s="1">
+        <v>12.704000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -10579,28 +10893,64 @@
       <c r="F4" s="1">
         <v>1615</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.0000999999999997E-2</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.5260020000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.0540010000000004</v>
+      </c>
+      <c r="L4" s="1">
+        <v>7.782953</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12.874000000000001</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>4262</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>5405</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.738</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5.03</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8.1809999999999992</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10.686999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -10619,8 +10969,26 @@
       <c r="F6" s="1">
         <v>3051</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.5790000000000007E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.44433</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.90948499999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.444083</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2.0284800000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -10639,8 +11007,26 @@
       <c r="F7" s="1">
         <v>2599</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1">
+        <v>6.4160999999999996E-2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.317969</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.39086199999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.59834900000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.60697800000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -10659,32 +11045,50 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="F16" s="1"/>
@@ -10695,541 +11099,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F15CC5-8485-4348-9BA0-71D4DACB2092}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.69997E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.2959977</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.4000032999999998</v>
-      </c>
-      <c r="E2" s="1">
-        <v>11.524381999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>15.3370642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.251</v>
-      </c>
-      <c r="C3" s="1">
-        <v>13.24</v>
-      </c>
-      <c r="D3" s="1">
-        <v>37.161999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>77.097999999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>129.02099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.3640020000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10.068</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14.022399999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>37.633304000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.606E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.8157000000000004E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.132108</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.19570299999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.25266300000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.1283999999999998E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.078802</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.4627150000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.6317529999999998</v>
-      </c>
-      <c r="F7" s="1">
-        <v>6.5375350000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6CA8CE-145C-4F64-A2B0-4E2324672F77}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.13799040000000001</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.7465681999999996</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13.160988100000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>22.151025600000001</v>
-      </c>
-      <c r="F2" s="1">
-        <v>30.2879988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.8260000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.6790000000000003</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.5440000000000005</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12.151999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4.5002E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.2152319999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.448302</v>
-      </c>
-      <c r="E4" s="1">
-        <v>6.774165</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10.523383000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8.0169999999999998E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.44984099999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.4333929999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.4328799999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.7681269999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5.6687000000000001E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.297962</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.348833</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.53446300000000002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.93798400000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C1A0E1-4DC7-4F2F-B8AD-71C3376891A7}">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="6" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.0999200000000001E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.0229992000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.8376459999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.7472713</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3.1420770999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.018</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.4620000000000002</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7.343</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12.704000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>5.0000999999999997E-2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.5260020000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.0540010000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.782953</v>
-      </c>
-      <c r="F4" s="1">
-        <v>12.874000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.5790000000000007E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.44433</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.90948499999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.444083</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.0284800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6.4160999999999996E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.317969</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.39086199999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.59834900000000002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.60697800000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>